--- a/svpwmtrials/switching patter for other sectors and regions.xlsx
+++ b/svpwmtrials/switching patter for other sectors and regions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="35">
   <si>
     <t>Sgmt</t>
   </si>
@@ -99,13 +99,51 @@
   </si>
   <si>
     <t>NNP</t>
+  </si>
+  <si>
+    <t>ONP</t>
+  </si>
+  <si>
+    <t>Sector 5</t>
+  </si>
+  <si>
+    <t>Sector 6</t>
+  </si>
+  <si>
+    <t>ONO</t>
+  </si>
+  <si>
+    <t>PNO</t>
+  </si>
+  <si>
+    <t>PNP</t>
+  </si>
+  <si>
+    <t>POP</t>
+  </si>
+  <si>
+    <t>POO</t>
+  </si>
+  <si>
+    <t>ONN</t>
+  </si>
+  <si>
+    <t>PNN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,15 +173,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -460,356 +499,683 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A11781-DE40-4C28-9DAD-37B4B8092B8D}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="5" width="7.140625" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" customWidth="1"/>
-    <col min="8" max="8" width="4.140625" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" customWidth="1"/>
-    <col min="12" max="12" width="4" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="1" customWidth="1"/>
+    <col min="2" max="5" width="7.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="4" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3">
+      <c r="I2" s="2"/>
+      <c r="J2" s="2">
         <v>3</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2">
         <v>4</v>
       </c>
-      <c r="M2" s="3"/>
+      <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3">
+      <c r="I12" s="2"/>
+      <c r="J12" s="2">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3">
+      <c r="K12" s="2"/>
+      <c r="L12" s="2">
         <v>4</v>
       </c>
-      <c r="M12" s="3"/>
+      <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="1" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2">
+        <v>3</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2">
+        <v>4</v>
+      </c>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2">
+        <v>3</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2">
+        <v>4</v>
+      </c>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="28">
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="B11:M11"/>
@@ -824,6 +1190,20 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B20:M20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="B29:M29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
